--- a/data_template.xlsx
+++ b/data_template.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Controls" sheetId="1" r:id="rId1"/>
+    <sheet name="SOX Controls" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>IT Solution</t>
   </si>
@@ -22,97 +22,106 @@
     <t>MICS ID</t>
   </si>
   <si>
-    <t>Control Name</t>
+    <t>BU Country/Owner</t>
+  </si>
+  <si>
+    <t>Zone</t>
   </si>
   <si>
     <t>Control Owner</t>
   </si>
   <si>
-    <t>Control Executer</t>
+    <t>Control Tester</t>
+  </si>
+  <si>
+    <t>Control Reviewer</t>
   </si>
   <si>
     <t>Control Status</t>
   </si>
   <si>
-    <t>Test Conclusion OE1</t>
-  </si>
-  <si>
-    <t>Test Conclusion OE2</t>
-  </si>
-  <si>
-    <t>Test Conclusion YE</t>
-  </si>
-  <si>
-    <t>Fail Reason</t>
-  </si>
-  <si>
-    <t>Aurora S/4HANA</t>
-  </si>
-  <si>
-    <t>Aurora BW4HANA</t>
-  </si>
-  <si>
-    <t>Aurora PaPM</t>
-  </si>
-  <si>
-    <t>Aurora PI/PO</t>
-  </si>
-  <si>
-    <t>ACCESS-10-K</t>
-  </si>
-  <si>
-    <t>SEC_01-K</t>
-  </si>
-  <si>
-    <t>SEC_02-K</t>
-  </si>
-  <si>
-    <t>IT_ACCESS_06-K</t>
-  </si>
-  <si>
-    <t>SEC_08-K</t>
-  </si>
-  <si>
-    <t>Third-Party Validity Check</t>
-  </si>
-  <si>
-    <t>Password Policy Review</t>
-  </si>
-  <si>
-    <t>User Provisioning Review</t>
-  </si>
-  <si>
-    <t>Movers Review</t>
-  </si>
-  <si>
-    <t>Superuser Monitoring</t>
-  </si>
-  <si>
-    <t>Clarissa</t>
-  </si>
-  <si>
-    <t>Nikita</t>
-  </si>
-  <si>
-    <t>Flavio</t>
-  </si>
-  <si>
-    <t>Karen</t>
-  </si>
-  <si>
-    <t>Shravya</t>
-  </si>
-  <si>
-    <t>Douglas</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Team GRC</t>
-  </si>
-  <si>
-    <t>Auditors</t>
+    <t>ControlExecutor (ZCM Lookup) (MICS_ZonalControlMaster)</t>
+  </si>
+  <si>
+    <t>Test Conclusion (OE1)</t>
+  </si>
+  <si>
+    <t>Test Conclusion (OE2)</t>
+  </si>
+  <si>
+    <t>Test Conclusion (YE)</t>
+  </si>
+  <si>
+    <t>RootCause Design</t>
+  </si>
+  <si>
+    <t>RootCause OE1</t>
+  </si>
+  <si>
+    <t>RootCause OE2</t>
+  </si>
+  <si>
+    <t>RootCause OE2 Design</t>
+  </si>
+  <si>
+    <t>RootCause YE Design</t>
+  </si>
+  <si>
+    <t>RootCause YE</t>
+  </si>
+  <si>
+    <t>Production Warehouse Management (PWM)</t>
+  </si>
+  <si>
+    <t>Darwin</t>
+  </si>
+  <si>
+    <t>Waterplan</t>
+  </si>
+  <si>
+    <t>IT_BC_02</t>
+  </si>
+  <si>
+    <t>IT_IF_01-K</t>
+  </si>
+  <si>
+    <t>IT_CHNG_02</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>GHQ</t>
+  </si>
+  <si>
+    <t>NAZ</t>
+  </si>
+  <si>
+    <t>Michael Paez</t>
+  </si>
+  <si>
+    <t>Amit Pal Singh</t>
+  </si>
+  <si>
+    <t>Vitor Monteiro</t>
+  </si>
+  <si>
+    <t>Mainak Mallick</t>
+  </si>
+  <si>
+    <t>Nivedita Singh</t>
+  </si>
+  <si>
+    <t>Puneeth Hegde</t>
+  </si>
+  <si>
+    <t>Travis Porter</t>
+  </si>
+  <si>
+    <t>PadmaPriya S</t>
   </si>
   <si>
     <t>Pass</t>
@@ -133,10 +142,10 @@
     <t>Ineffective</t>
   </si>
   <si>
-    <t>Policy misaligned with ABI; auto_unlock_time set incorrectly</t>
-  </si>
-  <si>
-    <t>Movers not shared with line managers</t>
+    <t>Policy not applied</t>
+  </si>
+  <si>
+    <t>Incorrect config</t>
   </si>
 </sst>
 </file>
@@ -494,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,156 +540,140 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
       </c>
       <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
       <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
         <v>39</v>
       </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
       <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="J4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
